--- a/medicine/Enfance/Jean-Luc_Englebert/Jean-Luc_Englebert.xlsx
+++ b/medicine/Enfance/Jean-Luc_Englebert/Jean-Luc_Englebert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Luc Englebert, né le 13 mars 1968 à Verviers dans la province de Liège, est un auteur de bande dessinée, écrivain et illustrateur de littérature d'enfance et de jeunesse belge.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Luc Englebert naît le 13 mars 1968[1],[2],[3] à Verviers[4] et il grandit à Herve. À 18 ans, il monte à Bruxelles pour poursuivre sa formation artistique[5]. Il suit les cours de l’Institut Saint-Luc de Bruxelles[1]. Il y a pour condisciples : Jean-Luc Cornette, Christian Durieux, Jerry Frissen, Fabrice Lamy, Bruno Marchand, Benoît Roels, André Taymans, Bruno Wesel[6].
-Après ses études, il participe à un magazine collectif : Mokka une revue de bande dessinée aussi intello qu’éphémère[7], initiée par Alain Corbel, Éric Lambé et Denis Larue[8]. Après avoir été tenté par la bande dessinée, il devient illustrateur de livres pour enfants[4]. De sa formation en bande dessinée, il garde l’importance du découpage et du scénario aussi pour les livres pour enfants[4]. Intéressé par l’illustration jeunesse, il propose plusieurs projets aux éditions Pastel, et quelques années plus tard, sortira son premier livre Ourson a disparu en 1994[7],[3]. Il poursuit dans cette voie avec plusieurs autres albums jeunesse, seul ou avec des écrivains comme Carl Norac avec Pierrot d’Amour (éd. Pastel, 2002) ou encore Andréa Nève avec La Cabane de Loula (éd. Pastel, 2006)[7]. Quand il raconte une histoire, il imagine et réalise d’abord le dessin qui doit tenir seul, considérant le texte presque comme de la décoration[4].
-Ses histoires sont tendres et intimistes illustrées par d’amples aquarelles, lumineuses et sobres[4]. Il travaille également pour la presse enfantine dont Abricot des éditions Fleurus[5].
-Il retrouve Durieux et il signe en sa compagnie sur ses scénarios une série jeunesse : Gusgus dont le héros est un enfant à moitié fantôme, dans la nouvelle collection « Punaise[9] » aux éditions Dupuis et un strip dans Spirou[10] en 2008. Il publie ainsi Les Rois du Monde[11] en 2007, il enchaîne avec Papa cool en 2008 et il clôt la série l'année suivante avec Le Hoquet du sceptre, puis il retourne à l'écriture et à l'illustration. Il illustre Ulysse 15 pour la romancière Christine Avel Ulysse 15 dans la collection « Neuf » en 2015 et l'année suivante La Poule qui avait pondu un bœuf de Christian Oster dans la collection « Mouche » aux éditions L'École des loisirs[7]. Il se fait également affichiste pour des salons de livres de jeunesse en 2016 et 2017[5]. En 2017, il participe à l'exposition collective Grrr ! L'Ours dans tous ses états au Rouge-Cloître[12]. En 2019, il publie trois tomes de L'Anorak rouge aux éditions Gallimard Jeunesse. En 2022, il illustre Marcel de Bruxelles de  Christophe Gillet dans la collection « Viens voir ma ville » aux éditions parisiennes ABC melody et il écrit Jan le petit peintre une histoire touchante qui est un véritable enchantement selon la chroniqueuse Delphine Freyssinet[13] sur Radio chrétienne francophone, contant l'effervescence d'un atelier d'artiste à la fin du Moyen Âge.
-Il est lauréat d'une bourse de la Fédération Wallonie-Bruxelles d'aide au projet en 2009, 2014 et 2020[4].
-En 2023, il est récipiendaire du prix du parcours Texte et image décerné par la Société civile des auteurs multimédia (SCAM) pour l'ensemble de son œuvre[4],[14].
-Jean-Luc Englebert est un dessinateur sans regret d’avoir renoncé à la bande dessinée[12] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Luc Englebert naît le 13 mars 1968 à Verviers et il grandit à Herve. À 18 ans, il monte à Bruxelles pour poursuivre sa formation artistique. Il suit les cours de l’Institut Saint-Luc de Bruxelles. Il y a pour condisciples : Jean-Luc Cornette, Christian Durieux, Jerry Frissen, Fabrice Lamy, Bruno Marchand, Benoît Roels, André Taymans, Bruno Wesel.
+Après ses études, il participe à un magazine collectif : Mokka une revue de bande dessinée aussi intello qu’éphémère, initiée par Alain Corbel, Éric Lambé et Denis Larue. Après avoir été tenté par la bande dessinée, il devient illustrateur de livres pour enfants. De sa formation en bande dessinée, il garde l’importance du découpage et du scénario aussi pour les livres pour enfants. Intéressé par l’illustration jeunesse, il propose plusieurs projets aux éditions Pastel, et quelques années plus tard, sortira son premier livre Ourson a disparu en 1994,. Il poursuit dans cette voie avec plusieurs autres albums jeunesse, seul ou avec des écrivains comme Carl Norac avec Pierrot d’Amour (éd. Pastel, 2002) ou encore Andréa Nève avec La Cabane de Loula (éd. Pastel, 2006). Quand il raconte une histoire, il imagine et réalise d’abord le dessin qui doit tenir seul, considérant le texte presque comme de la décoration.
+Ses histoires sont tendres et intimistes illustrées par d’amples aquarelles, lumineuses et sobres. Il travaille également pour la presse enfantine dont Abricot des éditions Fleurus.
+Il retrouve Durieux et il signe en sa compagnie sur ses scénarios une série jeunesse : Gusgus dont le héros est un enfant à moitié fantôme, dans la nouvelle collection « Punaise » aux éditions Dupuis et un strip dans Spirou en 2008. Il publie ainsi Les Rois du Monde en 2007, il enchaîne avec Papa cool en 2008 et il clôt la série l'année suivante avec Le Hoquet du sceptre, puis il retourne à l'écriture et à l'illustration. Il illustre Ulysse 15 pour la romancière Christine Avel Ulysse 15 dans la collection « Neuf » en 2015 et l'année suivante La Poule qui avait pondu un bœuf de Christian Oster dans la collection « Mouche » aux éditions L'École des loisirs. Il se fait également affichiste pour des salons de livres de jeunesse en 2016 et 2017. En 2017, il participe à l'exposition collective Grrr ! L'Ours dans tous ses états au Rouge-Cloître. En 2019, il publie trois tomes de L'Anorak rouge aux éditions Gallimard Jeunesse. En 2022, il illustre Marcel de Bruxelles de  Christophe Gillet dans la collection « Viens voir ma ville » aux éditions parisiennes ABC melody et il écrit Jan le petit peintre une histoire touchante qui est un véritable enchantement selon la chroniqueuse Delphine Freyssinet sur Radio chrétienne francophone, contant l'effervescence d'un atelier d'artiste à la fin du Moyen Âge.
+Il est lauréat d'une bourse de la Fédération Wallonie-Bruxelles d'aide au projet en 2009, 2014 et 2020.
+En 2023, il est récipiendaire du prix du parcours Texte et image décerné par la Société civile des auteurs multimédia (SCAM) pour l'ensemble de son œuvre,.
+Jean-Luc Englebert est un dessinateur sans regret d’avoir renoncé à la bande dessinée 
 « Au fond, dit-il, je m’étais seulement trompé de voie, pas de destin ! »
 </t>
         </is>
@@ -549,9 +563,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Luc Englebert vit à Bruxelles en 2004[15] et il a deux filles[4] et une collection monstrueuse de vinyles[16]. Il partage sa vie avec Marie Chartres, écrivaine pour l’École des Loisirs[17].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Luc Englebert vit à Bruxelles en 2004 et il a deux filles et une collection monstrueuse de vinyles. Il partage sa vie avec Marie Chartres, écrivaine pour l’École des Loisirs.
 </t>
         </is>
       </c>
@@ -582,29 +598,37 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Livres jeunesse la majorité publiés par L'École des loisirs
-en tant qu'auteur et illustrateur
-Ourson a disparu, coll. « Pastel », 1994  (ISBN 2-211-02293-6)
+          <t>Livres jeunesse la majorité publiés par L'École des loisirs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>en tant qu'auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ourson a disparu, coll. « Pastel », 1994  (ISBN 2-211-02293-6)
 La Fête de Tomi, coll. « Pastel », 1996  (ISBN 9782211039772)
 Tomi et le voleur, coll. « Pastel », 1997  (ISBN 2-211-04477-8)
-36 papas[18], coll. « Pastel »,	2002  (ISBN 2-211-06649-6)
+36 papas, coll. « Pastel »,	2002  (ISBN 2-211-06649-6)
 Le Château du petit prince, coll. « les lutins », 2003
-Mon petit crocodile[19], coll. « Pastel », 2004  (ISBN 2-211-07517-7)
+Mon petit crocodile, coll. « Pastel », 2004  (ISBN 2-211-07517-7)
 Dessine-moi des lapins, coll. « Pastel », 2004
 Une histoire et un câlin !, coll. « Pastel », 2005  (ISBN 2-211-07830-3)
 Trabakaloum !, coll. « Pastel », 2005
 Petit Roi Crocodile, coll. « Pastel », 2006
 Le jour du A, coll. « Pastel », 2010
-Un ours à l'école[20], coll. « Pastel », 2015  (ISBN 978-2-211-22278-5)
+Un ours à l'école, coll. « Pastel », 2015  (ISBN 978-2-211-22278-5)
 Donne-moi une histoire, coll. « Pastel », 2015  (ISBN 978-2-211-21798-9)
-L'Été de l'indien[21], coll. « Pastel », 2019  (ISBN 978-2-211-23805-2)
+L'Été de l'indien, coll. « Pastel », 2019  (ISBN 978-2-211-23805-2)
 L'Anorak rouge (t. 1). Le Vaste Monde, Paris, Gallimard Jeunesse, 2019  (ISBN 978-2-07-509819-9)
 L'Anorak rouge (t. 2). Le Petit Poney magique, Paris, Gallimard Jeunesse, 2019  (ISBN 978-2-07-510232-2)
 L'Anorak rouge (t. 3). La Fête de l'école, Paris, Gallimard Jeunesse, 2019  (ISBN 9782075125758)
-Je veux un pain au chocolat[22] !, coll. « Pastel », 2020  (ISBN 978-2-211-30438-2)
-Anna[23], coll. « Pastel », 2021  (ISBN 978-2-211-30795-6)
-Jan le petit peintre[13],[24],[25], coll. « Pastel », 2022  (ISBN 978-2-211-42453-0)
-L'Idée du placard[26], coll. « Pastel », 2023  (ISBN 978-2-211-31537-1)</t>
+Je veux un pain au chocolat !, coll. « Pastel », 2020  (ISBN 978-2-211-30438-2)
+Anna, coll. « Pastel », 2021  (ISBN 978-2-211-30795-6)
+Jan le petit peintre coll. « Pastel », 2022  (ISBN 978-2-211-42453-0)
+L'Idée du placard, coll. « Pastel », 2023  (ISBN 978-2-211-31537-1)</t>
         </is>
       </c>
     </row>
